--- a/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Edad-trans_dic.xlsx
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004647765924814952</v>
+        <v>0.006222384350941437</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00417935748682526</v>
+        <v>0.004156748919455618</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004571464788056675</v>
+        <v>0.004707140966140833</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003857117310822528</v>
+        <v>0.00372340143809322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.003479660585151512</v>
+        <v>0.004256923416613695</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003310552868546464</v>
+        <v>0.003376062411125067</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01840222263462505</v>
+        <v>0.015437531593188</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02751916114127749</v>
+        <v>0.02681176504404673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01205699666643594</v>
+        <v>0.01211838655049476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02281434315406128</v>
+        <v>0.02382427682586665</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02500585348337883</v>
+        <v>0.02500937684577892</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0157443719000726</v>
+        <v>0.01645903635545878</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0140467087604644</v>
+        <v>0.01035219814955367</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06126455657213599</v>
+        <v>0.05468299926474348</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01599545106901238</v>
+        <v>0.01571411897947106</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01701115209006162</v>
+        <v>0.01800154681768787</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.008207109146319317</v>
+        <v>0.00717368858532564</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02990609270330913</v>
+        <v>0.03167655895888283</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.005815426241365286</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01966320538322421</v>
+        <v>0.01966320538322422</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002536804783768858</v>
+        <v>0.002566603925289041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002619048286197563</v>
+        <v>0.002658950696905132</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01261011577446717</v>
+        <v>0.01083603770263126</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.003045971060546325</v>
+        <v>0.003127068004253556</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01322267338877199</v>
+        <v>0.01174246445352867</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.002957902553068096</v>
+        <v>0.002627386700840233</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005459038510247745</v>
+        <v>0.004785842231552636</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.00393014108789173</v>
+        <v>0.00393625321857613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008399545642618623</v>
+        <v>0.008496051135926025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002486059857949101</v>
+        <v>0.002540591691409444</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01052422652068205</v>
+        <v>0.01055740553766601</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01652296644961164</v>
+        <v>0.01657507653956839</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01522164291349071</v>
+        <v>0.01546636491974468</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01579090827302277</v>
+        <v>0.0125668487061802</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.058817902799061</v>
+        <v>0.05619676592909578</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01765303170927911</v>
+        <v>0.01819479534565446</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04360393062170126</v>
+        <v>0.04038901428244613</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0177919788396574</v>
+        <v>0.0164732142178451</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02456981383976901</v>
+        <v>0.02515988104990638</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01367883565865453</v>
+        <v>0.01386549034770705</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02306500739638843</v>
+        <v>0.02385063560974498</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0114266450575818</v>
+        <v>0.01181417483122537</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03614902921852463</v>
+        <v>0.0348921583737699</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002569905008619284</v>
+        <v>0.002585276826498345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003120248788751855</v>
+        <v>0.004157541396250393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002960855456586647</v>
+        <v>0.002918202572694942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004317801945132555</v>
+        <v>0.004451290595150064</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00345287919732267</v>
+        <v>0.004280664621488496</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.008050017234274724</v>
+        <v>0.008385959745987406</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002769258581770781</v>
+        <v>0.002785293119442342</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009236019808266048</v>
+        <v>0.01014858100445199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00442194717192442</v>
+        <v>0.004702305821541868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.008035662727523438</v>
+        <v>0.008127145689840413</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.003820652817903464</v>
+        <v>0.003917353208862357</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.00853211256628382</v>
+        <v>0.008329656025360378</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02314411385814945</v>
+        <v>0.02062862980639419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02285072652076327</v>
+        <v>0.02333038333176318</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01943840458995449</v>
+        <v>0.0199823795082438</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02295023427225406</v>
+        <v>0.02469031932165145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02127704533199655</v>
+        <v>0.01961769845151686</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02955405596973916</v>
+        <v>0.02882615058740759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01424728868541672</v>
+        <v>0.01600568634051601</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02618074856554408</v>
+        <v>0.02813495598180089</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01528916365422821</v>
+        <v>0.01645377681178723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02158608203548312</v>
+        <v>0.02183132773414135</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01362348592337781</v>
+        <v>0.01389768752487205</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02182868111660638</v>
+        <v>0.0209068426683995</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01938313979402978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02556808657468608</v>
+        <v>0.02556808657468607</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01996024222352941</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004147095023570486</v>
+        <v>0.003949129780056466</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01340713107181491</v>
+        <v>0.01239247703690997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01005089200354447</v>
+        <v>0.009964651455286192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01493233326793888</v>
+        <v>0.01479406982855176</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0100999518248147</v>
+        <v>0.0100708184659697</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01340651747442594</v>
+        <v>0.01366888630378747</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003166827884024376</v>
+        <v>0.003197220718403693</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01738519181711934</v>
+        <v>0.01716746176167643</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009481307094109609</v>
+        <v>0.009711268460846056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01558230196228896</v>
+        <v>0.01620619307014548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008500872387097893</v>
+        <v>0.008183940025457033</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01857718528772324</v>
+        <v>0.01831211178218339</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0261642912226446</v>
+        <v>0.02379913364799988</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0434929556314007</v>
+        <v>0.04275225129280723</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03435677925656801</v>
+        <v>0.03378593458492581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04043316995920847</v>
+        <v>0.03843370702909649</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03491206258470279</v>
+        <v>0.03535800167998922</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03868027022705781</v>
+        <v>0.04067283720028778</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01917060046576047</v>
+        <v>0.01873828874341282</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03680804908456525</v>
+        <v>0.03638541505546232</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02448315145481797</v>
+        <v>0.02507763279834379</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03576551845520081</v>
+        <v>0.03533247011187043</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02278495177973509</v>
+        <v>0.0218230405197373</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03367983687954455</v>
+        <v>0.03407825470568763</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.006644816651051075</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03864924455775272</v>
+        <v>0.03864924455775273</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02668393852352069</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01989578518656841</v>
+        <v>0.01725213200691332</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007427923989189319</v>
+        <v>0.009533032334966334</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003528538489407455</v>
+        <v>0.004039309333300482</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02490714564705794</v>
+        <v>0.02476693376116753</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.008952039305956812</v>
+        <v>0.009608705431011416</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01392241105020623</v>
+        <v>0.01220969572582554</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.001933264002040782</v>
+        <v>0.001946758964971691</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02762983632939209</v>
+        <v>0.02796050389765879</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01714065968794257</v>
+        <v>0.01688209176550945</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01445824229836748</v>
+        <v>0.01378887263971755</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004180506800115867</v>
+        <v>0.003595787574282557</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02919493559815101</v>
+        <v>0.02988787310477159</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.058694021760857</v>
+        <v>0.05405176911708365</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03852072359195565</v>
+        <v>0.03917258855701636</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03046738596177813</v>
+        <v>0.03013806013380664</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0559831121724449</v>
+        <v>0.05740997255564335</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03759494782209025</v>
+        <v>0.04178880155182606</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0465039970365161</v>
+        <v>0.04554987593403553</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01757121230786825</v>
+        <v>0.0179266789097102</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05340057477737148</v>
+        <v>0.05344819609856846</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04122966848030289</v>
+        <v>0.04007876523274011</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03565634540465343</v>
+        <v>0.03538165686854885</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01972947209365108</v>
+        <v>0.01866584954274739</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04937265801931406</v>
+        <v>0.04897519406849172</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.01085591138925748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.03378688012459961</v>
+        <v>0.03378688012459962</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01621666960071196</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02702444879551581</v>
+        <v>0.02505009365869229</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.006318756079252183</v>
+        <v>0.00636052743482759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002827514152781281</v>
+        <v>0.002832672995593555</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02028109996921838</v>
+        <v>0.02090517626143669</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005436863234822453</v>
+        <v>0.005566815191893958</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01831758318408648</v>
+        <v>0.01666390412606069</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005476831893035924</v>
+        <v>0.0071862475305036</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03284044834251258</v>
+        <v>0.03316605206775659</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01868363437740019</v>
+        <v>0.01965924537217376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01490464409041012</v>
+        <v>0.01485690659556498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.006719953581215702</v>
+        <v>0.006751672636824885</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03140685715925122</v>
+        <v>0.03060243666299153</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07448217121505077</v>
+        <v>0.07290131621426203</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04529640586972043</v>
+        <v>0.04783260934062163</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02922992756588506</v>
+        <v>0.03408834453757805</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05116679835740785</v>
+        <v>0.05369788122153335</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03477381089652897</v>
+        <v>0.03476867456780806</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0567971743652264</v>
+        <v>0.0593618328362234</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03403865787394066</v>
+        <v>0.0355038306149471</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06296445679336612</v>
+        <v>0.06372626464999812</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04450796302305077</v>
+        <v>0.04556101826597189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04240168324838584</v>
+        <v>0.04268206721913365</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02453350130918234</v>
+        <v>0.02422259162793549</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05287812211285668</v>
+        <v>0.05352053117361687</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.02458505456569105</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05901963908320193</v>
+        <v>0.05901963908320192</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.008948892556715108</v>
+        <v>0.008421466776474288</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02009086517210826</v>
+        <v>0.020648620862071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005292818376131938</v>
+        <v>0.0035463090012199</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02005131290766611</v>
+        <v>0.01927017334468336</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0237779145890322</v>
+        <v>0.02375308994157442</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01609763904145233</v>
+        <v>0.01568607960653489</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01500340368791526</v>
+        <v>0.01293323513078283</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05774073882809384</v>
+        <v>0.0584974220079232</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02248518570945997</v>
+        <v>0.02231578083717092</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02148895965014585</v>
+        <v>0.02222505187751607</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01423397075477162</v>
+        <v>0.01352277745301726</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04527178699260694</v>
+        <v>0.04703130335913976</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05582421587125011</v>
+        <v>0.05469173017618117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0704687357988948</v>
+        <v>0.07398678026801545</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03982307481122918</v>
+        <v>0.03986265510323311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0619150158382864</v>
+        <v>0.05819456597607717</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07383718872635484</v>
+        <v>0.07344336201088138</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05256208253357907</v>
+        <v>0.05200586859461625</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0557001896613396</v>
+        <v>0.05637600812696228</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09474346196514707</v>
+        <v>0.09634808015201325</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05437609873044659</v>
+        <v>0.05789598784170508</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05000812246910839</v>
+        <v>0.05064297698400453</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04381572339087405</v>
+        <v>0.04168215858195843</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07322201395601194</v>
+        <v>0.07516464079149018</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="28">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2111</v>
+        <v>2826</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1954</v>
+        <v>1943</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
@@ -2032,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1657</v>
+        <v>1706</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3709</v>
+        <v>3580</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3077</v>
+        <v>3765</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>2550</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9092</v>
+        <v>7627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12498</v>
+        <v>12176</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5057</v>
+        <v>5083</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9304</v>
+        <v>9715</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11690</v>
+        <v>11692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6774</v>
+        <v>7081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5559</v>
+        <v>4097</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22209</v>
+        <v>19823</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>15380</v>
+        <v>15110</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>15044</v>
+        <v>15920</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>6691</v>
+        <v>5848</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23037</v>
+        <v>24401</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1866</v>
+        <v>1888</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1800</v>
+        <v>1827</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6014</v>
+        <v>5168</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1905</v>
+        <v>1956</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8069</v>
+        <v>7166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1667</v>
+        <v>1481</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2739</v>
+        <v>2401</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>5349</v>
+        <v>5357</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10897</v>
+        <v>11022</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2869</v>
+        <v>2932</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10299</v>
+        <v>10332</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12152</v>
+        <v>12191</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10459</v>
+        <v>10627</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9324</v>
+        <v>7421</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28050</v>
+        <v>26800</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11042</v>
+        <v>11381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>26610</v>
+        <v>24648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10027</v>
+        <v>9283</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12327</v>
+        <v>12624</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>18617</v>
+        <v>18871</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>29923</v>
+        <v>30942</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13187</v>
+        <v>13634</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35376</v>
+        <v>34146</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1641</v>
+        <v>1651</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2128</v>
+        <v>2835</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1981</v>
+        <v>1953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2681</v>
+        <v>2764</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2382</v>
+        <v>2953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5722</v>
+        <v>5961</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1832</v>
+        <v>1842</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5756</v>
+        <v>6325</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5874</v>
+        <v>6247</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>11191</v>
+        <v>11319</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5083</v>
+        <v>5212</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>10614</v>
+        <v>10362</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14781</v>
+        <v>13175</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15581</v>
+        <v>15908</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13006</v>
+        <v>13370</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>14248</v>
+        <v>15329</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14676</v>
+        <v>13531</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>21009</v>
+        <v>20491</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9423</v>
+        <v>10586</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16316</v>
+        <v>17534</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20310</v>
+        <v>21857</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>30063</v>
+        <v>30405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18126</v>
+        <v>18491</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>27156</v>
+        <v>26009</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2153</v>
+        <v>2050</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8240</v>
+        <v>7617</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6493</v>
+        <v>6438</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10462</v>
+        <v>10365</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5208</v>
+        <v>5193</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8261</v>
+        <v>8423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2056</v>
+        <v>2075</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12811</v>
+        <v>12650</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9811</v>
+        <v>10049</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19179</v>
+        <v>19947</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11010</v>
+        <v>10599</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26705</v>
+        <v>26324</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13583</v>
+        <v>12355</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26732</v>
+        <v>26276</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22196</v>
+        <v>21827</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28328</v>
+        <v>26927</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18002</v>
+        <v>18232</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23835</v>
+        <v>25063</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12443</v>
+        <v>12163</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27123</v>
+        <v>26812</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>25335</v>
+        <v>25950</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>44021</v>
+        <v>43488</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29509</v>
+        <v>28264</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>48415</v>
+        <v>48988</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7694</v>
+        <v>6672</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3190</v>
+        <v>4094</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1686</v>
+        <v>1930</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15177</v>
+        <v>15092</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3616</v>
+        <v>3882</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6234</v>
+        <v>5468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16823</v>
+        <v>17024</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>13553</v>
+        <v>13349</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12683</v>
+        <v>12096</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4075</v>
+        <v>3505</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>35565</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22698</v>
+        <v>20902</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16542</v>
+        <v>16822</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14561</v>
+        <v>14404</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>34113</v>
+        <v>34983</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15188</v>
+        <v>16882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20824</v>
+        <v>20397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8730</v>
+        <v>8907</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>32513</v>
+        <v>32542</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32600</v>
+        <v>31690</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>31279</v>
+        <v>31038</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19232</v>
+        <v>18195</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>60146</v>
+        <v>59662</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7907</v>
+        <v>7329</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1957</v>
+        <v>1970</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>8256</v>
+        <v>8510</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1864</v>
+        <v>1909</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6484</v>
+        <v>5899</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2069</v>
+        <v>2715</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>14422</v>
+        <v>14565</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11874</v>
+        <v>12494</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>9893</v>
+        <v>9862</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4785</v>
+        <v>4808</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>26578</v>
+        <v>25897</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>21792</v>
+        <v>21330</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14032</v>
+        <v>14818</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9772</v>
+        <v>11397</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20829</v>
+        <v>21859</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11925</v>
+        <v>11923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20106</v>
+        <v>21014</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12859</v>
+        <v>13412</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>27652</v>
+        <v>27986</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>28286</v>
+        <v>28955</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28145</v>
+        <v>28332</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>17470</v>
+        <v>17249</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>44748</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1878</v>
+        <v>1768</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5020</v>
+        <v>5159</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1360</v>
+        <v>911</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>6220</v>
+        <v>5978</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7940</v>
+        <v>7931</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6262</v>
+        <v>6102</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6004</v>
+        <v>5175</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>26827</v>
+        <v>27178</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12227</v>
+        <v>12135</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>13728</v>
+        <v>14198</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>9354</v>
+        <v>8887</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>35077</v>
+        <v>36440</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11717</v>
+        <v>11479</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17607</v>
+        <v>18486</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10234</v>
+        <v>10245</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>19206</v>
+        <v>18052</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>24655</v>
+        <v>24523</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20446</v>
+        <v>20229</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>22289</v>
+        <v>22560</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>44019</v>
+        <v>44764</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>29569</v>
+        <v>31483</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>31947</v>
+        <v>32352</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>28794</v>
+        <v>27392</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>56733</v>
+        <v>58238</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
     </row>
     <row r="36">
